--- a/lib/WEB/Mesh_CMAP.xlsx
+++ b/lib/WEB/Mesh_CMAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>模块</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>com.tenda.router.app:id/mesh_setting_wifi_pwd</t>
+  </si>
+  <si>
+    <t>确认修改</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>com.tenda.router.app:id/tv_confirm</t>
   </si>
   <si>
     <t>返回键</t>
@@ -705,38 +714,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,10 +735,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -764,29 +751,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,24 +765,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +803,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -849,7 +858,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,13 +881,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,55 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +935,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,13 +959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +995,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,61 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,6 +1072,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1084,23 +1108,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,8 +1117,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,17 +1172,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1171,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1674,10 +1683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="$A67:$XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2178,96 +2187,96 @@
         <v>78</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -2277,10 +2286,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
@@ -2289,10 +2298,10 @@
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -2302,35 +2311,35 @@
         <v>91</v>
       </c>
       <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>92</v>
       </c>
-      <c r="G30" t="s">
-        <v>93</v>
-      </c>
       <c r="H30" t="s">
         <v>23</v>
       </c>
-      <c r="I30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
         <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2340,77 +2349,77 @@
         <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2493,33 +2502,29 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -2528,61 +2533,65 @@
         <v>119</v>
       </c>
       <c r="H41" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
         <v>16</v>
@@ -2592,205 +2601,205 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
         <v>100</v>
       </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>126</v>
-      </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
       </c>
-      <c r="I53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2800,87 +2809,87 @@
         <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
       </c>
-      <c r="I57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>114</v>
@@ -2889,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -2899,19 +2908,19 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2921,52 +2930,52 @@
         <v>78</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F62" t="s">
-        <v>92</v>
-      </c>
-      <c r="G62" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
         <v>145</v>
@@ -2991,7 +3000,7 @@
         <v>148</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3010,7 +3019,7 @@
         <v>151</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3023,68 +3032,65 @@
         <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H66" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F68" t="s">
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-      <c r="I68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -3093,7 +3099,10 @@
         <v>157</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="I69" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3134,7 +3143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
@@ -3152,162 +3161,162 @@
       <c r="H72" t="s">
         <v>23</v>
       </c>
-      <c r="I72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
         <v>169</v>
       </c>
-      <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
         <v>170</v>
-      </c>
-      <c r="H73" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>172</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
-      </c>
-      <c r="I77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="I78" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -3338,45 +3347,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:8">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
         <v>23</v>
       </c>
-      <c r="I82" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="G83" t="s">
         <v>184</v>
       </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s">
         <v>185</v>
-      </c>
-      <c r="H83" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3395,7 +3404,7 @@
         <v>188</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3433,7 +3442,7 @@
         <v>194</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3481,13 +3490,13 @@
         <v>201</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
@@ -3497,16 +3506,16 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="H90" t="s">
         <v>23</v>
@@ -3569,7 +3578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:8">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
@@ -3582,13 +3591,10 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="H94" t="s">
-        <v>216</v>
-      </c>
-      <c r="I94" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3604,13 +3610,13 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95" t="s">
         <v>219</v>
       </c>
-      <c r="H95" t="s">
-        <v>216</v>
-      </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3629,10 +3635,10 @@
         <v>222</v>
       </c>
       <c r="H96" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3651,47 +3657,69 @@
         <v>225</v>
       </c>
       <c r="H97" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>219</v>
+      </c>
+      <c r="I98" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="H99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3700,33 +3728,33 @@
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A99"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A100"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B99"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B100"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
